--- a/image-mapping.xlsx
+++ b/image-mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telefonicatechuk-my.sharepoint.com/personal/rosie_cox_telefonicatech_uk/Documents/source/repos/shoe-classifier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63712347-49CF-465E-BC96-739F692281F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{63712347-49CF-465E-BC96-739F692281F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8B88488-DECE-4909-A1A0-A19F042D896F}"/>
   <bookViews>
     <workbookView xWindow="10704" yWindow="12852" windowWidth="23256" windowHeight="13896" xr2:uid="{5F2899EC-2A42-4DE9-8C4D-726B5DC66F19}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>https://github.com/rosie-coxx/shoe-classifier/blob/main/Shoe/Nike/Other/Dunk%20Retro/Back.png?raw=true</t>
   </si>
@@ -93,6 +93,30 @@
   </si>
   <si>
     <t>https://github.com/rosie-coxx/shoe-classifier/blob/main/Shoe/Nike/Air/Air%20Force%201/Side.png?raw=true</t>
+  </si>
+  <si>
+    <t>Nike Vaporfly 3</t>
+  </si>
+  <si>
+    <t>Nike Vaporfly 4</t>
+  </si>
+  <si>
+    <t>Nike Vaporfly 5</t>
+  </si>
+  <si>
+    <t>Nike Vaporfly 6</t>
+  </si>
+  <si>
+    <t>https://github.com/rosie-coxx/shoe-classifier/blob/main/Shoe/Nike/Other/Vaporfly%203/back.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/rosie-coxx/shoe-classifier/blob/main/Shoe/Nike/Other/Vaporfly%203/sole.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/rosie-coxx/shoe-classifier/blob/main/Shoe/Nike/Other/Vaporfly%203/side.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/rosie-coxx/shoe-classifier/blob/main/Shoe/Nike/Other/Vaporfly%203/side%202.png?raw=true</t>
   </si>
 </sst>
 </file>
@@ -481,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0082254-2FC5-4712-94BB-7A8746872A89}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,6 +635,38 @@
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -627,6 +683,11 @@
     <hyperlink ref="B13" r:id="rId9" xr:uid="{5D1F8765-5F3F-467D-B45C-43BAD2FC6874}"/>
     <hyperlink ref="B14" r:id="rId10" xr:uid="{BFF96FAF-319F-4E0A-8A3B-0064F08CA230}"/>
     <hyperlink ref="B15" r:id="rId11" xr:uid="{2BE812FE-AD70-4A46-8B74-75A766C621A3}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{2EA8813A-5878-4533-8A6B-700A6C098E59}"/>
+    <hyperlink ref="B17:B19" r:id="rId13" display="https://github.com/rosie-coxx/shoe-classifier/blob/main/Shoe/Nike/Other/Vaporfly%203/back.png?raw=true" xr:uid="{B9E155EA-5317-4A02-A09D-772052E3906E}"/>
+    <hyperlink ref="B17" r:id="rId14" xr:uid="{49930584-F9D5-45FA-BFC1-D806010D576C}"/>
+    <hyperlink ref="B18" r:id="rId15" xr:uid="{ADCF16F3-7981-409A-8A95-4ADE8FD2092E}"/>
+    <hyperlink ref="B19" r:id="rId16" xr:uid="{DD129607-BDD3-4E14-9E79-2953374BC2F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/image-mapping.xlsx
+++ b/image-mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telefonicatechuk-my.sharepoint.com/personal/rosie_cox_telefonicatech_uk/Documents/source/repos/shoe-classifier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{63712347-49CF-465E-BC96-739F692281F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8B88488-DECE-4909-A1A0-A19F042D896F}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{63712347-49CF-465E-BC96-739F692281F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E450453-EE00-4C2C-BF75-4AF4E71F3AC3}"/>
   <bookViews>
     <workbookView xWindow="10704" yWindow="12852" windowWidth="23256" windowHeight="13896" xr2:uid="{5F2899EC-2A42-4DE9-8C4D-726B5DC66F19}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>https://github.com/rosie-coxx/shoe-classifier/blob/main/Shoe/Nike/Other/Dunk%20Retro/Back.png?raw=true</t>
   </si>
@@ -96,15 +96,6 @@
   </si>
   <si>
     <t>Nike Vaporfly 3</t>
-  </si>
-  <si>
-    <t>Nike Vaporfly 4</t>
-  </si>
-  <si>
-    <t>Nike Vaporfly 5</t>
-  </si>
-  <si>
-    <t>Nike Vaporfly 6</t>
   </si>
   <si>
     <t>https://github.com/rosie-coxx/shoe-classifier/blob/main/Shoe/Nike/Other/Vaporfly%203/back.png?raw=true</t>
@@ -186,6 +177,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -508,7 +503,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,31 +637,31 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
